--- a/medicine/Hématologie/Sérologie/Sérologie.xlsx
+++ b/medicine/Hématologie/Sérologie/Sérologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rologie</t>
+          <t>Sérologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sérologie Écouter est l'étude des sérums et des variations ou modifications de leurs propriétés au cours des maladies.
 Depuis les progrès de la biologie, elle consiste surtout, via ce qu'on appelle communément une analyse de sang, à mettre en évidence des indices de présence d'agents pathogènes dans l'organisme, au moyen de différents tests. Elle permet une approche quantitative et qualitative, avec par exemple le dosage d'anticorps spécifiques. Elle est donc liée à l'étude des immunoglobulines du sérum sanguin ou d'autres liquides organiques. Elle est utilisée comme outil diagnostic, comme outil de dépistage (SIDA, hépatite, etc.), comme outil épidémiologique et de plus en plus écoépidémiologique. 
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9rologie</t>
+          <t>Sérologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Procédure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sérologie s’effectue sur un prélèvement sanguin veineux (en général au pli du coude). Il n'est pas indispensable d'être à jeun. Pour établir un diagnostic, deux prélèvements espacés de deux à quatre semaines sont souvent utiles pour montrer une ascension marquant une infection récente. Les dépistages nécessitent en général un seul prélèvement.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9rologie</t>
+          <t>Sérologie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Généralement, la sérologie consiste à évaluer l'immunité contre une maladie en mesurant la quantité d'anticorps spécifiques de celle-ci. 
 Elle peut être utilisée également pour s'assurer de l'efficacité d'une vaccination (c'est le cas par exemple pour l'hépatite B). Elle peut enfin servir au diagnostic d'une maladie auto-immune.
@@ -555,18 +571,121 @@
 En cas de réinfection par un même agent pathogène, le taux d'IgG réaugmente brutalement par un phénomène mémoire du système immunitaire vis-à-vis du pathogène. 
 Le temps de latence et l’effet mémoire diffèrent selon les maladies, et selon le patient et l'état de son système immunitaire. certains microbes (virus de la grippe par exemple) peuvent, au moins provisoirement, mais à plusieurs reprises successives, déjouer le système immunitaire en changeant par mutation leurs protéines de surface, ou en utilisant une sorte de déguisement constitué de protéines directement prélevées à l'hôte. Leur détection par le système immunitaire et par la sérologie peut alors être plus tardive.
 La sérologie n’est pas appliquée à toutes les infections. Une liste non exhaustive est proposée ci-après :
-Sérologie virale
-Sérologie bactérienne
-Brucellose : séroagglutination de Wright et immunofluorescence indirecte
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sérologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9rologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sérologie bactérienne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brucellose : séroagglutination de Wright et immunofluorescence indirecte
 Salmonelloses
 Syphilis
 Streptocoques : Anti StreptoLysines O et Anti streptodornase B,
 etc.
-Sérologie parasitaire
-Toxoplasmose
-Paludisme
-Détermination du statut immunitaire pour la vaccination
-sérologie VZV avant vaccination chez les personnels de santé
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sérologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9rologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sérologie parasitaire</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toxoplasmose
+Paludisme</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sérologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Hématologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/S%C3%A9rologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Principes</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Détermination du statut immunitaire pour la vaccination</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">sérologie VZV avant vaccination chez les personnels de santé
 sérologie VHA avant vaccination chez les sujets à risque
 sérologie quantitative VHB après vaccination pour vérifier l'efficacité du vaccin
 sérologies polio et ROR éventuellement avant et après vaccination chez les immunodéprimés,
@@ -575,31 +694,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>S%C3%A9rologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sérologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9rologie</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Techniques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe de nombreuses techniques de détection des anticorps :
 Précipitation en milieu liquide ou en milieu solide
@@ -620,31 +741,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>S%C3%A9rologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sérologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9rologie</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sérologie positive ou négative</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">La réponse immunitaire à une infection fait parfois intervenir la création d'anticorps.
 La présence d'anticorps spécifiques à une maladie indique que la personne, à un moment donné dans le passé, a été infectée par la maladie ou est simplement entrée en contact avec l'agent pathogène. On dit que la personne a une sérologie positive, ou bien est séropositive. 
@@ -657,31 +780,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>S%C3%A9rologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Sérologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Hématologie/Articles liés</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/S%C3%A9rologie</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Séroconversion</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">La séroconversion est le passage d'une séronégativité à une séropositivité. Ce terme est souvent utilisé en obstétrique ou en médecine fœtale pour désigner la date de survenue d'une infection, par exemple la toxoplasmose. Ainsi les conséquences d'une séroconversion sur le fœtus dépendent du terme de la grossesse ou de l'âge gestationnel du fœtus.
 </t>
